--- a/Vendas Semanais Serviços.xlsx
+++ b/Vendas Semanais Serviços.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tab 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Exercício proposto" sheetId="2" r:id="rId2"/>
+    <sheet name="Exercício proposto 1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Loja</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Seleção de pontos de lojas</t>
+  </si>
+  <si>
+    <t>Empresa</t>
+  </si>
+  <si>
+    <t>Veja o enunciado deste exercício no e-book ou na apresentação</t>
   </si>
 </sst>
 </file>
@@ -148,7 +154,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -178,6 +184,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -463,14 +472,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4:D24"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.81640625" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
@@ -480,7 +490,7 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -716,10 +726,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D19"/>
+  <dimension ref="B2:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -728,173 +738,178 @@
     <col min="2" max="4" width="8.7265625" style="8"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="10" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B2" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="7" t="s">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1726</v>
-      </c>
-      <c r="D6" s="8">
-        <v>3681</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="8">
-        <v>2</v>
-      </c>
-      <c r="C7" s="8">
-        <v>1642</v>
-      </c>
-      <c r="D7" s="8">
-        <v>3895</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" s="8">
-        <v>2816</v>
+        <v>1726</v>
       </c>
       <c r="D8" s="8">
-        <v>6653</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" s="8">
-        <v>5555</v>
+        <v>1642</v>
       </c>
       <c r="D9" s="8">
-        <v>9543</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10" s="8">
-        <v>1292</v>
+        <v>2816</v>
       </c>
       <c r="D10" s="8">
-        <v>3418</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11" s="8">
-        <v>2208</v>
+        <v>5555</v>
       </c>
       <c r="D11" s="8">
-        <v>5563</v>
+        <v>9543</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" s="8">
-        <v>1313</v>
+        <v>1292</v>
       </c>
       <c r="D12" s="8">
-        <v>3660</v>
+        <v>3418</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" s="8">
-        <v>1102</v>
+        <v>2208</v>
       </c>
       <c r="D13" s="8">
-        <v>2694</v>
+        <v>5563</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14" s="8">
-        <v>3151</v>
+        <v>1313</v>
       </c>
       <c r="D14" s="8">
-        <v>5468</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" s="8">
-        <v>1516</v>
+        <v>1102</v>
       </c>
       <c r="D15" s="8">
-        <v>2898</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" s="8">
-        <v>5161</v>
+        <v>3151</v>
       </c>
       <c r="D16" s="8">
-        <v>10674</v>
+        <v>5468</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C17" s="8">
-        <v>4567</v>
+        <v>1516</v>
       </c>
       <c r="D17" s="8">
-        <v>7585</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="8">
+        <v>11</v>
+      </c>
+      <c r="C18" s="8">
+        <v>5161</v>
+      </c>
+      <c r="D18" s="8">
+        <v>10674</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="8">
+        <v>12</v>
+      </c>
+      <c r="C19" s="8">
+        <v>4567</v>
+      </c>
+      <c r="D19" s="8">
+        <v>7585</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="8">
         <v>13</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C20" s="8">
         <v>5841</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D20" s="8">
         <v>11760</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="9">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" s="9">
         <v>14</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C21" s="9">
         <v>3008</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D21" s="9">
         <v>4085</v>
       </c>
     </row>
